--- a/BOM Microbit holder.xlsx
+++ b/BOM Microbit holder.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conta\Desktop\Dossier Github - Badge animé Microbit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conta\Documents\Robotique\# Badge Microbit\Dossier Github - Badge animé Microbit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C9489B-29D2-4E81-8A2A-65D9A3C3167C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E307BD-CE9C-4A59-9662-6D06ACA295BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A16CED69-F7C7-47C8-8FEA-45A09C4F86DF}"/>
   </bookViews>
@@ -154,12 +154,6 @@
     <t>Longue pour  porte-badge</t>
   </si>
   <si>
-    <t>Longue  pour Porte-badge</t>
-  </si>
-  <si>
-    <t>Longue porte-badge</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Batterie 502030 - 250mAh Lipo avec connecteur JST-PHR-02 32x20,5x5,3 </t>
     </r>
@@ -173,6 +167,12 @@
       </rPr>
       <t>! Choisir la bonne polarité !</t>
     </r>
+  </si>
+  <si>
+    <t>Longe  pour Porte-badge</t>
+  </si>
+  <si>
+    <t>Longe porte-badge</t>
   </si>
 </sst>
 </file>
@@ -729,7 +729,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -821,10 +821,10 @@
         <v>8.19</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -849,7 +849,7 @@
         <v>8.2799999999999994</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>23</v>

--- a/BOM Microbit holder.xlsx
+++ b/BOM Microbit holder.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conta\Documents\Robotique\# Badge Microbit\Dossier Github - Badge animé Microbit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E307BD-CE9C-4A59-9662-6D06ACA295BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52910E26-A9A4-49DB-BB0B-0F374E7DA31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A16CED69-F7C7-47C8-8FEA-45A09C4F86DF}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="BOM &amp; COST Microbit holder" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DonnéesExternes_1" localSheetId="0" hidden="1">'BOM &amp; COST Microbit holder'!$A$1:$H$14</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">miniBOM3[#All]</definedName>
+    <definedName name="DonnéesExternes_1" localSheetId="0" hidden="1">'BOM &amp; COST Microbit holder'!$A$1:$H$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'BOM &amp; COST Microbit holder'!$A$1:$H$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>Total</t>
   </si>
@@ -173,6 +173,16 @@
   </si>
   <si>
     <t>Longe porte-badge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micro Lipo - USB Charger </t>
+  </si>
+  <si>
+    <t>Micro Lipo - USB Charger - 5V to 3,7V</t>
+  </si>
+  <si>
+    <t>Option 
+USB charger</t>
   </si>
 </sst>
 </file>
@@ -248,7 +258,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -256,12 +266,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -311,6 +358,36 @@
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -409,7 +486,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F7B092C7-F270-4CD3-AA3A-A1990A6D1413}" name="miniBOM3" displayName="miniBOM3" ref="A1:H14" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F7B092C7-F270-4CD3-AA3A-A1990A6D1413}" name="miniBOM3" displayName="miniBOM3" ref="A1:H15" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="16">
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{2EBEBD30-1F39-4C4B-A482-5BC11207656F}" uniqueName="1" name="Item" queryTableFieldId="1" headerRowDxfId="15" dataDxfId="14"/>
     <tableColumn id="8" xr3:uid="{8EC2A430-851F-43EA-AA2F-5CE449D29AE5}" uniqueName="8" name="Price Per Parcell" queryTableFieldId="8" headerRowDxfId="13" dataDxfId="12"/>
@@ -726,11 +803,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -865,195 +940,260 @@
       <c r="G5"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="1.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="0.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="18"/>
       <c r="E6" s="16"/>
       <c r="F6" s="17"/>
       <c r="G6"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:8" ht="1.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="18"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17">
+        <f>miniBOM3[[#This Row],[Price Per Unit]]*miniBOM3[[#This Row],[Quantity needed]]</f>
+        <v>0</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B8" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="13" t="s">
+      <c r="D8" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H8" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B9" s="15">
         <v>18</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C9" s="15">
         <v>11</v>
       </c>
-      <c r="D8" s="15">
-        <v>1</v>
-      </c>
-      <c r="E8" s="16">
+      <c r="D9" s="15">
+        <v>1</v>
+      </c>
+      <c r="E9" s="16">
         <f>miniBOM3[[#This Row],[Price Per Parcell]]*miniBOM3[[#This Row],[ Quantity per Parcell]]/1000</f>
         <v>0.19800000000000001</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F9" s="16">
         <f>miniBOM3[[#This Row],[Price Per Unit]]*miniBOM3[[#This Row],[Quantity needed]]</f>
         <v>0.19800000000000001</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G9" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B10" s="15">
         <v>18</v>
       </c>
-      <c r="C9" s="15">
-        <v>1</v>
-      </c>
-      <c r="D9" s="15">
-        <v>1</v>
-      </c>
-      <c r="E9" s="16">
+      <c r="C10" s="15">
+        <v>1</v>
+      </c>
+      <c r="D10" s="15">
+        <v>1</v>
+      </c>
+      <c r="E10" s="16">
         <f>miniBOM3[[#This Row],[Price Per Parcell]]*miniBOM3[[#This Row],[ Quantity per Parcell]]/1000</f>
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F10" s="16">
         <f>miniBOM3[[#This Row],[Price Per Unit]]*miniBOM3[[#This Row],[Quantity needed]]</f>
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G10" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="17"/>
-      <c r="C10" s="21">
-        <f>SUM(C8:C9)</f>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="17"/>
+      <c r="C11" s="21">
+        <f>SUM(C9:C10)</f>
         <v>12</v>
       </c>
-      <c r="D10" s="21">
-        <f>SUM(D8:D9)</f>
+      <c r="D11" s="21">
+        <f>SUM(D9:D10)</f>
         <v>2</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17">
-        <f>SUM(F8:F9)</f>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17">
+        <f>SUM(F9:F10)</f>
         <v>0.216</v>
       </c>
-      <c r="G10"/>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" ht="1.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="18"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
       <c r="G11"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:8" ht="1.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="18"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
+      <c r="G12"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C13" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D13" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E13" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="15">
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="15">
         <v>0.21</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C14" s="15">
         <v>150</v>
       </c>
-      <c r="D13" s="15">
-        <v>1</v>
-      </c>
-      <c r="E13" s="16">
+      <c r="D14" s="15">
+        <v>1</v>
+      </c>
+      <c r="E14" s="16">
         <f>miniBOM3[[#This Row],[Price Per Parcell]]*miniBOM3[[#This Row],[ Quantity per Parcell]]/1000</f>
         <v>3.15E-2</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F14" s="17">
         <f>miniBOM3[[#This Row],[Price Per Unit]]*miniBOM3[[#This Row],[Quantity needed]]</f>
         <v>3.15E-2</v>
       </c>
-      <c r="G13"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="G14"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="19">
-        <f>F5+F10+F13</f>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="19">
+        <f>F5+F11+F14</f>
         <v>36.057500000000005</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="26">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="C18" s="26">
+        <v>1</v>
+      </c>
+      <c r="D18" s="27">
+        <v>1</v>
+      </c>
+      <c r="E18" s="28">
+        <f>B18/C18</f>
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="F18" s="28">
+        <f>E18/D18</f>
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{E119D392-D3EF-496A-8101-D523A005F7BB}"/>
-    <hyperlink ref="H8" r:id="rId2" location="/couleur-gris" xr:uid="{FDC0E589-40BB-4BC5-BDDB-5A9F771EC014}"/>
+    <hyperlink ref="H9" r:id="rId2" location="/couleur-gris" xr:uid="{FDC0E589-40BB-4BC5-BDDB-5A9F771EC014}"/>
     <hyperlink ref="H4" r:id="rId3" xr:uid="{BCF98C0B-AF63-454B-94D7-422D60EF7277}"/>
-    <hyperlink ref="H9" r:id="rId4" location="/couleur-gris" xr:uid="{70663A89-8E42-4521-A277-76053BA7286C}"/>
+    <hyperlink ref="H10" r:id="rId4" location="/couleur-gris" xr:uid="{70663A89-8E42-4521-A277-76053BA7286C}"/>
     <hyperlink ref="H3" r:id="rId5" xr:uid="{2D84BC27-7F56-4C69-A74F-26198C3A86C0}"/>
+    <hyperlink ref="H18" r:id="rId6" xr:uid="{E70AA0D0-69B6-4E86-A74A-6F1EE1813E38}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="59" orientation="landscape" horizontalDpi="4294967293" r:id="rId6"/>
+  <pageSetup paperSize="9" scale="56" orientation="landscape" horizontalDpi="4294967293" r:id="rId7"/>
   <headerFooter>
     <oddHeader>&amp;LGF&amp;C&amp;F&amp;R&amp;D</oddHeader>
   </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
